--- a/CashFlow/CL_cashflow.xlsx
+++ b/CashFlow/CL_cashflow.xlsx
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4735000000.0</v>
+        <v>-320000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>6076000000.0</v>
+        <v>-251000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5803000000.0</v>
+        <v>-222000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4219000000.0</v>
+        <v>-190000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2664000000.0</v>
+        <v>-16000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1331000000.0</v>
+        <v>-77000000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-91000000.0</v>
@@ -885,22 +885,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3732000000.0</v>
+        <v>225000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5023000000.0</v>
+        <v>520000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4867000000.0</v>
+        <v>556000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3604000000.0</v>
+        <v>397000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2357000000.0</v>
+        <v>212000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1185000000.0</v>
+        <v>36000000.0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>-47000000.0</v>
@@ -2210,10 +2210,8 @@
           <t>Dividends Paid (Total)</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-1505000000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-1502000000.0</v>
@@ -3303,7 +3301,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>-1281000000.0</v>
+        <v>-1657000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>-1654000000.0</v>
@@ -3812,10 +3810,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>-1021000000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-602000000.0</v>
